--- a/Systematically Missing.xlsx
+++ b/Systematically Missing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnnev\Desktop\Inventory Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E9209-7991-4E85-A409-A73C7D64B11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D66E828-A037-4A8F-A81E-E5DE1F5DD65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10260" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Part Number</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Date Updated</t>
   </si>
   <si>
-    <t>K01E</t>
-  </si>
-  <si>
     <t>K01D</t>
   </si>
   <si>
-    <t>K02C</t>
-  </si>
-  <si>
     <t>5020353-1</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t>L03D</t>
-  </si>
-  <si>
-    <t>L03E</t>
   </si>
   <si>
     <t>L04C</t>
@@ -121,9 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,19 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -206,13 +190,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93BD26F3-F3B5-4F53-8992-CE7DDF6CC223}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93BD26F3-F3B5-4F53-8992-CE7DDF6CC223}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:D36" xr:uid="{93BD26F3-F3B5-4F53-8992-CE7DDF6CC223}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3A47ACE7-7788-4925-AF73-D475D1FCF2C5}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{EE1B17EB-B8E4-4256-B2D0-EB244528E931}" name="QTY Missing"/>
     <tableColumn id="3" xr3:uid="{217E4B93-8136-41F8-B05F-9E460337BE02}" name="Location"/>
-    <tableColumn id="4" xr3:uid="{B6D20779-3923-4DBE-9FA8-A48066E5C48C}" name="Date Updated" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B6D20779-3923-4DBE-9FA8-A48066E5C48C}" name="Date Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +502,7 @@
         <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>45275</v>
@@ -526,13 +510,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3006696</v>
+        <v>5090111</v>
       </c>
       <c r="B3">
-        <v>147</v>
+        <v>880</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>45275</v>
@@ -546,7 +530,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>45275</v>
@@ -554,27 +538,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5020353</v>
+        <v>5510113</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>45275</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6">
+        <v>5664103</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>45275</v>
@@ -582,13 +566,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3006708</v>
+        <v>5181006</v>
       </c>
       <c r="B7">
-        <v>515</v>
+        <v>2625</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>45275</v>
@@ -596,13 +580,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5090111</v>
+        <v>3006473</v>
       </c>
       <c r="B8">
-        <v>880</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>45275</v>
@@ -610,13 +594,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5050800</v>
+        <v>5050776</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>45275</v>
@@ -624,13 +608,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5510113</v>
+        <v>30704</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>45275</v>
@@ -638,13 +622,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5664103</v>
+        <v>5200250</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>45275</v>
@@ -652,13 +636,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5181006</v>
+        <v>5050437</v>
       </c>
       <c r="B12">
-        <v>2625</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>45275</v>
@@ -666,13 +650,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3006473</v>
+        <v>5160366</v>
       </c>
       <c r="B13">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
         <v>45275</v>
@@ -680,27 +664,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5050776</v>
+        <v>5050437</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>45275</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>30704</v>
+      <c r="A15">
+        <v>5200250</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2">
         <v>45275</v>
@@ -708,13 +692,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5200250</v>
+        <v>5662858</v>
       </c>
       <c r="B16">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>45275</v>
@@ -722,27 +706,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5050437</v>
+        <v>5050673</v>
       </c>
       <c r="B17">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>45275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5160366</v>
+      <c r="A18" t="s">
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>45275</v>
@@ -750,13 +734,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5050437</v>
+        <v>3006640</v>
       </c>
       <c r="B19">
-        <v>288</v>
+        <v>2240</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>45275</v>
@@ -764,13 +748,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5200250</v>
+        <v>5050751</v>
       </c>
       <c r="B20">
-        <v>288</v>
+        <v>7500</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>45275</v>
@@ -778,13 +762,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5662858</v>
+        <v>5050745</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>597</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
         <v>45275</v>
@@ -792,13 +776,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5050673</v>
+        <v>5050800</v>
       </c>
       <c r="B22">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
         <v>45275</v>
@@ -806,27 +790,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>350105</v>
+        <v>3006431</v>
       </c>
       <c r="B23">
-        <v>997</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>45275</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
+      <c r="A24">
+        <v>5370333</v>
       </c>
       <c r="B24">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>45275</v>
@@ -834,13 +818,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3006640</v>
+        <v>3006453</v>
       </c>
       <c r="B25">
-        <v>2240</v>
+        <v>680</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>45275</v>
@@ -848,13 +832,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5050751</v>
+        <v>5500023</v>
       </c>
       <c r="B26">
-        <v>7500</v>
+        <v>600</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
         <v>45275</v>
@@ -862,13 +846,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5050745</v>
+        <v>5510137</v>
       </c>
       <c r="B27">
-        <v>597</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
         <v>45275</v>
@@ -876,127 +860,15 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3006430</v>
+        <v>5050894</v>
       </c>
       <c r="B28">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5050800</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3006606</v>
-      </c>
-      <c r="B30">
-        <v>360</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3006431</v>
-      </c>
-      <c r="B31">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5370333</v>
-      </c>
-      <c r="B32">
-        <v>240</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3006453</v>
-      </c>
-      <c r="B33">
-        <v>680</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5500023</v>
-      </c>
-      <c r="B34">
-        <v>600</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5510137</v>
-      </c>
-      <c r="B35">
-        <v>150</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5050894</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2">
         <v>45275</v>
       </c>
     </row>
